--- a/窒素循環シミュレーション可視化/開発環境構築.xlsx
+++ b/窒素循環シミュレーション可視化/開発環境構築.xlsx
@@ -5,19 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MyProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MyProject\窒素循環シミュレーション可視化\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19E730C-566B-428F-B6BE-7CCFD194E3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CF9771-E10F-48B2-AB46-98D1A28AEF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7550" yWindow="2570" windowWidth="22490" windowHeight="15290" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17596" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="WSLのインストール" sheetId="1" r:id="rId1"/>
-    <sheet name="VSCodeのインストール" sheetId="2" r:id="rId2"/>
-    <sheet name="WSL更新" sheetId="3" r:id="rId3"/>
-    <sheet name="VSCode起動" sheetId="4" r:id="rId4"/>
-    <sheet name="PostgreSQL のインストール" sheetId="5" r:id="rId5"/>
+    <sheet name="1.WSL2の有効化" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="2.CentOSのインストール" sheetId="7" r:id="rId3"/>
+    <sheet name="WSLのインストール" sheetId="1" r:id="rId4"/>
+    <sheet name="VSCodeのインストール" sheetId="2" r:id="rId5"/>
+    <sheet name="WSL更新" sheetId="3" r:id="rId6"/>
+    <sheet name="VSCode起動" sheetId="4" r:id="rId7"/>
+    <sheet name="PostgreSQL のインストール" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>sudo apt-get update</t>
   </si>
@@ -179,12 +182,188 @@
       <t>sudo service postgresql stop</t>
     </r>
   </si>
+  <si>
+    <t>CentOS7.9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記URLから、CentOSをダウンロードする</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/mishamosher/CentOS-WSL/releases/tag/7.9-2009</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enable-WindowsOptionalFeature -Online -FeatureName Microsoft-Windows-Subsystem-Linux</t>
+  </si>
+  <si>
+    <t>PowerShell（管理者）から以下を実行する。</t>
+    <rPh sb="11" eb="13">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンピューターを再起動する。</t>
+    <rPh sb="8" eb="11">
+      <t>サイキドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enable-WindowsOptionalFeature -Online -FeatureName VirtualMachinePlatform</t>
+  </si>
+  <si>
+    <t>「Y」を入すると、コンピューターを再起動する。</t>
+    <rPh sb="4" eb="5">
+      <t>ニュウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>サイキドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記URLから、CentOS7.9をダウンロードする</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CentOS7.9.zipファイルをCドライブの直下に展開する。</t>
+    <rPh sb="24" eb="26">
+      <t>チョッカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CentOS7.9をインストールする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;cd C:\CentOS7\</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;.\CentOS7.exe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CentOSのインストールは完了</t>
+    <rPh sb="14" eb="16">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インストール後の確認</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt; wsl -l -v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記URLから、WSL2 Linux カーネル更新プログラム パッケージをダウンロードする</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://wslstorestorage.blob.core.windows.net/wslblob/wsl_update_x64.msi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前の手順でダウンロードした更新プログラム パッケージを実行します。</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記コマンドをPowerShellで実行し、WSLのバージョンを確認すｒ。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;wsl --status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「既定のバージョン: 1」の場合、下記操作が必要です。</t>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wslの確認</t>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt; wsl --status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;dism.exe /online /enable-feature /featurename:VirtualMachinePlatform /all /norestart</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +408,20 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -268,10 +461,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -286,8 +480,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -307,199 +504,199 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>131600</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>218162</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>14289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>435986</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3FCA2DF-D82E-35BF-D2E7-0D79BCEC0996}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="300039" y="461964"/>
+          <a:ext cx="6608185" cy="5591174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>444689</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>27263</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F9C814E-ECA9-645B-924F-1AEB21AF7BC8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="457200"/>
-          <a:ext cx="14000000" cy="7304762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>180091</xdr:colOff>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA10403-E9CF-667E-CCF0-6534B0BF973E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="300038" y="7386638"/>
+          <a:ext cx="6616889" cy="5623200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>146580</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685029</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>151800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D9B14F-8310-4C9C-DB81-1DABB8CF620E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="8312727"/>
-          <a:ext cx="14000000" cy="7304762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>180091</xdr:colOff>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA34676-BD4A-70F4-251C-DC54E9CAF71C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="300038" y="14101763"/>
+          <a:ext cx="4799829" cy="3733200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685029</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>151800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44F3DAB1-EF57-3132-0523-C33ADA27F48F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="300038" y="17907000"/>
+          <a:ext cx="4799829" cy="3733200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>146580</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2188FC64-72FA-8EF3-7477-5E1F3DBC0DD5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="16163636"/>
-          <a:ext cx="14000000" cy="7304762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>180091</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>146580</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685029</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>151800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC9F6BE7-A6BE-6976-1676-D39A82FF2974}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="24014545"/>
-          <a:ext cx="14000000" cy="7304762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>180091</xdr:colOff>
-      <xdr:row>169</xdr:row>
-      <xdr:rowOff>146581</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE74206-07D5-0830-4148-4472771EF555}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0206B197-B32D-B00D-26A7-541B9779E25A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -515,35 +712,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="31865455"/>
-          <a:ext cx="14000000" cy="7304762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>180091</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>146581</xdr:rowOff>
+          <a:off x="300038" y="21712238"/>
+          <a:ext cx="4799829" cy="3733200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>444689</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>27263</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C73493-BAC9-EC44-F7A2-C4F9D86A6F2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23B62748-F338-8FDF-89F0-BC945490B46C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -559,8 +756,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="39716364"/>
-          <a:ext cx="14000000" cy="7304762"/>
+          <a:off x="300038" y="27084338"/>
+          <a:ext cx="6616889" cy="5623200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -576,23 +773,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>637105</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>56343</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>444689</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>27262</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F285DB6E-5201-B6AD-4864-7BD6B3D71EDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14355C51-D6D9-EA5E-C983-F7932C614612}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -608,316 +805,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="228600"/>
-          <a:ext cx="8561905" cy="6457143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>637105</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>56343</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82810BFC-D658-1818-3DAE-985A93A87F62}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="6858000"/>
-          <a:ext cx="8561905" cy="6457143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>637105</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>56343</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4363D5DE-9BF6-8B28-43B4-FECCF73F4FBC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="13487400"/>
-          <a:ext cx="8561905" cy="6457143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>637105</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>56343</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BD634EE-7C4E-ECC0-C185-891D234A056A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="20116800"/>
-          <a:ext cx="8561905" cy="6457143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>637105</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>56343</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8300CD02-4323-D7A2-C4DF-D87316159165}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="26974800"/>
-          <a:ext cx="8561905" cy="6457143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>637105</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>56343</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0507B42-A0FB-43C5-0158-95BC7CDE01B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="33604200"/>
-          <a:ext cx="8561905" cy="6457143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>603295</xdr:colOff>
-      <xdr:row>236</xdr:row>
-      <xdr:rowOff>226914</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{269628CF-283A-91DF-F0AA-9D15585CE175}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="40690800"/>
-          <a:ext cx="25038095" cy="13485714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>238</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>536166</xdr:colOff>
-      <xdr:row>297</xdr:row>
-      <xdr:rowOff>105357</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55441E0D-949B-AF56-AA17-19E68F60F10B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="53975000"/>
-          <a:ext cx="25038095" cy="13485714"/>
+          <a:off x="685800" y="447675"/>
+          <a:ext cx="6616889" cy="5623200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -933,23 +822,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>4286</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>198886</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>461460</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>204300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19B91205-F006-D5AA-034F-AB510016E6C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E58B6381-B35D-C3B1-2C7A-F59FB7416D33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,35 +854,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="228600"/>
-          <a:ext cx="16514286" cy="9114286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>62013</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>108832</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA910014-20CD-F7DF-B550-FAFA664B9337}"/>
+          <a:off x="261939" y="895350"/>
+          <a:ext cx="7319459" cy="5576400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>444689</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>27263</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D3CC59-229A-D927-6A27-F1423E7B30D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1009,35 +898,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="9929091"/>
-          <a:ext cx="16514286" cy="9114286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+          <a:off x="261938" y="7386638"/>
+          <a:ext cx="6616889" cy="5623200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>444689</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>62013</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>108832</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A84F5B6D-7C31-8C96-E758-483A3779E71F}"/>
+      <xdr:rowOff>27263</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C66CAA-9C71-9A76-5830-9005BAB6D943}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1053,35 +942,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="19396364"/>
-          <a:ext cx="16514286" cy="9114286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>62013</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>108831</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C40DDDFF-C41D-CDE7-20BC-62A03F06AB5F}"/>
+          <a:off x="261938" y="13206413"/>
+          <a:ext cx="6616889" cy="5623200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>444689</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>27262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0715D4B5-CBF2-94A8-39FB-58276C4CB6AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1097,8 +986,184 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="28863636"/>
-          <a:ext cx="16514286" cy="9114286"/>
+          <a:off x="261938" y="19250025"/>
+          <a:ext cx="6616889" cy="5623200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>444689</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>27262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F8B126-5624-5E8D-CDF7-AAB9D8D33C31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="261938" y="25517475"/>
+          <a:ext cx="6616889" cy="5623200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>461460</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>204300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{900A04E1-121E-098B-28AB-F4A045117A4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7805739" y="895350"/>
+          <a:ext cx="7319459" cy="5576400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>444689</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>27263</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43ACBC58-A656-ADD9-6120-EF03B84A0F6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7805738" y="7386638"/>
+          <a:ext cx="6616889" cy="5623200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>588505</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>26837</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAEC2BC0-C045-AD23-0249-EF25A49FF207}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7805738" y="6715125"/>
+          <a:ext cx="16361905" cy="13904762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1114,6 +1179,632 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>131600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>218161</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F9C814E-ECA9-645B-924F-1AEB21AF7BC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="457200"/>
+          <a:ext cx="14000000" cy="7304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180091</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>146580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D9B14F-8310-4C9C-DB81-1DABB8CF620E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8312727"/>
+          <a:ext cx="14000000" cy="7304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180091</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>146581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2188FC64-72FA-8EF3-7477-5E1F3DBC0DD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16163636"/>
+          <a:ext cx="14000000" cy="7304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180091</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>146580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC9F6BE7-A6BE-6976-1676-D39A82FF2974}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="24014545"/>
+          <a:ext cx="14000000" cy="7304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180091</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>146581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE74206-07D5-0830-4148-4472771EF555}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="31865455"/>
+          <a:ext cx="14000000" cy="7304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180091</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>146580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C73493-BAC9-EC44-F7A2-C4F9D86A6F2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="39716364"/>
+          <a:ext cx="14000000" cy="7304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>637105</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>56343</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F285DB6E-5201-B6AD-4864-7BD6B3D71EDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="228600"/>
+          <a:ext cx="8561905" cy="6457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>637105</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>56343</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82810BFC-D658-1818-3DAE-985A93A87F62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6858000"/>
+          <a:ext cx="8561905" cy="6457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>637105</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>56343</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4363D5DE-9BF6-8B28-43B4-FECCF73F4FBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13487400"/>
+          <a:ext cx="8561905" cy="6457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>637105</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>56343</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BD634EE-7C4E-ECC0-C185-891D234A056A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="8561905" cy="6457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>637105</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>56343</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8300CD02-4323-D7A2-C4DF-D87316159165}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="26974800"/>
+          <a:ext cx="8561905" cy="6457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>637105</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>56343</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0507B42-A0FB-43C5-0158-95BC7CDE01B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="33604200"/>
+          <a:ext cx="8561905" cy="6457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>603295</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>226914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{269628CF-283A-91DF-F0AA-9D15585CE175}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="40690800"/>
+          <a:ext cx="25038095" cy="13485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>536166</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>105357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55441E0D-949B-AF56-AA17-19E68F60F10B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="53975000"/>
+          <a:ext cx="25038095" cy="13485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -1130,6 +1821,187 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19B91205-F006-D5AA-034F-AB510016E6C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="228600"/>
+          <a:ext cx="16514286" cy="9114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>62013</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>108832</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA910014-20CD-F7DF-B550-FAFA664B9337}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9929091"/>
+          <a:ext cx="16514286" cy="9114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>62013</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>108832</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A84F5B6D-7C31-8C96-E758-483A3779E71F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19396364"/>
+          <a:ext cx="16514286" cy="9114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>62013</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>108831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C40DDDFF-C41D-CDE7-20BC-62A03F06AB5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="28863636"/>
+          <a:ext cx="16514286" cy="9114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>4286</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>198886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D1BD2E-F3BF-0205-FF26-51B18CE8E3AF}"/>
             </a:ext>
           </a:extLst>
@@ -1379,7 +2251,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2042,14 +2914,268 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F83763-A6AF-4FD4-A92F-A4BFBF30A4AD}">
+  <dimension ref="A1:B121"/>
+  <sheetViews>
+    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="1" max="1" width="3.9375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="B65" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>4</v>
+      </c>
+      <c r="B120" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="B121" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B65" r:id="rId1" xr:uid="{E8B0636A-B1EE-4697-8EAE-852BF431B4B1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9CE0B6-BF9D-4B4C-A925-DA9A6C8CA94C}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D76E55-8A5B-4491-B99A-546CA0879D35}">
+  <dimension ref="A1:B114"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="1" max="1" width="3.4375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>4</v>
+      </c>
+      <c r="B113" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="B114" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{50CCB552-54EA-499C-B37C-8E06150C9DAE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{F5184D6A-8EED-44EC-A07B-66C371058E60}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94E0214-B112-4B9C-8BF6-05B850EAD197}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF195" sqref="AF195"/>
+    <sheetView topLeftCell="A256" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A300" sqref="A300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2058,24 +3184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94E0214-B112-4B9C-8BF6-05B850EAD197}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A256" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A300" sqref="A300"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A02F9F3-1C52-4BA4-8384-7EBAEDB6AAAD}">
   <dimension ref="A2:AA167"/>
   <sheetViews>
@@ -2083,7 +3192,7 @@
       <selection activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData>
     <row r="2" spans="27:27">
       <c r="AA2" s="1" t="s">
@@ -2110,7 +3219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6178F1D-37A5-472D-B7A3-48161EFD6DA1}">
   <dimension ref="AA1:AA166"/>
   <sheetViews>
@@ -2118,26 +3227,26 @@
       <selection activeCell="AE178" sqref="AE178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData>
-    <row r="1" spans="27:27" ht="18.5" thickBot="1"/>
-    <row r="2" spans="27:27" ht="18.5" thickBot="1">
+    <row r="1" spans="27:27" ht="18" thickBot="1"/>
+    <row r="2" spans="27:27" ht="18" thickBot="1">
       <c r="AA2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="27:27" ht="18.5" thickBot="1"/>
-    <row r="84" spans="27:27" ht="18.5" thickBot="1">
+    <row r="83" spans="27:27" ht="18" thickBot="1"/>
+    <row r="84" spans="27:27" ht="18" thickBot="1">
       <c r="AA84" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="27:27" ht="18.5" thickBot="1">
+    <row r="85" spans="27:27" ht="18" thickBot="1">
       <c r="AA85" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="27:27" ht="18.5" thickBot="1">
+    <row r="86" spans="27:27" ht="18" thickBot="1">
       <c r="AA86" s="4" t="s">
         <v>6</v>
       </c>
@@ -2154,15 +3263,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1C846F-4F5A-4355-A332-9BA240CC7B6E}">
   <dimension ref="AA2:AA208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A304" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AB347" sqref="AB347"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData>
     <row r="2" spans="27:27">
       <c r="AA2" s="1" t="s">
